--- a/Parameter tuning.xlsx
+++ b/Parameter tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Computational_Intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F094DBF-B9F0-4DB3-B2EB-F93EEF95A4FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A124F83-8C1B-4ED0-8D42-A9A84D3D0AB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42015" yWindow="810" windowWidth="28800" windowHeight="15435" xr2:uid="{3921E29E-1DF7-4514-BCA2-F4C73B02EA71}"/>
+    <workbookView xWindow="38955" yWindow="2085" windowWidth="28800" windowHeight="15435" xr2:uid="{3921E29E-1DF7-4514-BCA2-F4C73B02EA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Fitness score on test</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t xml:space="preserve">Roulette </t>
+  </si>
+  <si>
+    <t>Activation function</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Relu</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Best fitness from runs</t>
   </si>
 </sst>
 </file>
@@ -442,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB82C78B-5412-4C28-9784-9F087EB32F6F}">
-  <dimension ref="A1:C335"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,9 +469,10 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -466,13 +482,19 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -483,7 +505,7 @@
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2.5600000000000001E-2</v>
       </c>
@@ -491,7 +513,7 @@
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6.1800000000000001E-2</v>
       </c>
@@ -499,7 +521,7 @@
         <v>0.1363</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8.1100000000000005E-2</v>
       </c>
@@ -507,7 +529,7 @@
         <v>0.20480000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -515,7 +537,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.8299999999999999E-2</v>
       </c>
@@ -523,7 +545,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8.1199999999999994E-2</v>
       </c>
@@ -531,7 +553,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4.3400000000000001E-2</v>
       </c>
@@ -539,7 +561,7 @@
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3.78E-2</v>
       </c>
@@ -547,7 +569,7 @@
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.6400000000000001E-2</v>
       </c>
@@ -555,7 +577,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
         <v>4.2620000000000005E-2</v>
@@ -564,8 +586,15 @@
         <f>AVERAGE(C3:C12)</f>
         <v>0.11468999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>AVERAGE(C3:C13)</f>
+        <v>0.11468999999999997</v>
+      </c>
+      <c r="E13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40</v>
       </c>
@@ -573,269 +602,400 @@
         <v>0.22159999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>0.12640000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>0.1019</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>7.9299999999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>0.1615</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>5.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>AVERAGE(C14:C24)</f>
+        <v>0.10647777777777778</v>
+      </c>
+      <c r="E24">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.12559999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="D35">
+        <f>AVERAGE(C25:C35)</f>
+        <v>8.9359999999999995E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.10979999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.1489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.18210000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.16209999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D46">
+        <f>AVERAGE(C36:C46)</f>
+        <v>0.11850000000000001</v>
+      </c>
+      <c r="E46">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
